--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07535826726375</v>
+        <v>1.748197</v>
       </c>
       <c r="H2">
-        <v>1.07535826726375</v>
+        <v>5.244591</v>
       </c>
       <c r="I2">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="J2">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.54807521913974</v>
+        <v>4.705367</v>
       </c>
       <c r="N2">
-        <v>4.54807521913974</v>
+        <v>14.116101</v>
       </c>
       <c r="O2">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="P2">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="Q2">
-        <v>4.890810287039312</v>
+        <v>8.225908473299</v>
       </c>
       <c r="R2">
-        <v>4.890810287039312</v>
+        <v>74.033176259691</v>
       </c>
       <c r="S2">
-        <v>0.01270928281394162</v>
+        <v>0.01909856761408258</v>
       </c>
       <c r="T2">
-        <v>0.01270928281394162</v>
+        <v>0.01909856761408257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07535826726375</v>
+        <v>1.748197</v>
       </c>
       <c r="H3">
-        <v>1.07535826726375</v>
+        <v>5.244591</v>
       </c>
       <c r="I3">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="J3">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.0225397793598</v>
+        <v>39.13297533333333</v>
       </c>
       <c r="N3">
-        <v>39.0225397793598</v>
+        <v>117.398926</v>
       </c>
       <c r="O3">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="P3">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="Q3">
-        <v>41.96321076136311</v>
+        <v>68.41215007880733</v>
       </c>
       <c r="R3">
-        <v>41.96321076136311</v>
+        <v>615.709350709266</v>
       </c>
       <c r="S3">
-        <v>0.1090457985582698</v>
+        <v>0.1588364468369614</v>
       </c>
       <c r="T3">
-        <v>0.1090457985582698</v>
+        <v>0.1588364468369613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07535826726375</v>
+        <v>1.748197</v>
       </c>
       <c r="H4">
-        <v>1.07535826726375</v>
+        <v>5.244591</v>
       </c>
       <c r="I4">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="J4">
-        <v>0.1601017789551236</v>
+        <v>0.234333233099101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.7225418275667</v>
+        <v>13.89498533333333</v>
       </c>
       <c r="N4">
-        <v>13.7225418275667</v>
+        <v>41.684956</v>
       </c>
       <c r="O4">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="P4">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="Q4">
-        <v>14.75664880214646</v>
+        <v>24.29117167477733</v>
       </c>
       <c r="R4">
-        <v>14.75664880214646</v>
+        <v>218.620545072996</v>
       </c>
       <c r="S4">
-        <v>0.03834669758291215</v>
+        <v>0.05639821864805708</v>
       </c>
       <c r="T4">
-        <v>0.03834669758291215</v>
+        <v>0.05639821864805707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.15359534474603</v>
+        <v>3.162808</v>
       </c>
       <c r="H5">
-        <v>3.15359534474603</v>
+        <v>9.488423999999998</v>
       </c>
       <c r="I5">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765522</v>
       </c>
       <c r="J5">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765521</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.54807521913974</v>
+        <v>4.705367</v>
       </c>
       <c r="N5">
-        <v>4.54807521913974</v>
+        <v>14.116101</v>
       </c>
       <c r="O5">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="P5">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="Q5">
-        <v>14.34278883863387</v>
+        <v>14.882172390536</v>
       </c>
       <c r="R5">
-        <v>14.34278883863387</v>
+        <v>133.939551514824</v>
       </c>
       <c r="S5">
-        <v>0.0372712391183735</v>
+        <v>0.03455280065024782</v>
       </c>
       <c r="T5">
-        <v>0.0372712391183735</v>
+        <v>0.03455280065024781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.15359534474603</v>
+        <v>3.162808</v>
       </c>
       <c r="H6">
-        <v>3.15359534474603</v>
+        <v>9.488423999999998</v>
       </c>
       <c r="I6">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765522</v>
       </c>
       <c r="J6">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765521</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.0225397793598</v>
+        <v>39.13297533333333</v>
       </c>
       <c r="N6">
-        <v>39.0225397793598</v>
+        <v>117.398926</v>
       </c>
       <c r="O6">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="P6">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="Q6">
-        <v>123.0612997883559</v>
+        <v>123.7700874480693</v>
       </c>
       <c r="R6">
-        <v>123.0612997883559</v>
+        <v>1113.930787032624</v>
       </c>
       <c r="S6">
-        <v>0.3197876774337653</v>
+        <v>0.2873641727720137</v>
       </c>
       <c r="T6">
-        <v>0.3197876774337653</v>
+        <v>0.2873641727720136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15359534474603</v>
+        <v>3.162808</v>
       </c>
       <c r="H7">
-        <v>3.15359534474603</v>
+        <v>9.488423999999998</v>
       </c>
       <c r="I7">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765522</v>
       </c>
       <c r="J7">
-        <v>0.4695144308353573</v>
+        <v>0.4239516623765521</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7225418275667</v>
+        <v>13.89498533333333</v>
       </c>
       <c r="N7">
-        <v>13.7225418275667</v>
+        <v>41.684956</v>
       </c>
       <c r="O7">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="P7">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="Q7">
-        <v>43.27534402549702</v>
+        <v>43.94717077214933</v>
       </c>
       <c r="R7">
-        <v>43.27534402549702</v>
+        <v>395.5245369493439</v>
       </c>
       <c r="S7">
-        <v>0.1124555142832184</v>
+        <v>0.1020346889542907</v>
       </c>
       <c r="T7">
-        <v>0.1124555142832184</v>
+        <v>0.1020346889542906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.48776293094114</v>
+        <v>2.549298333333333</v>
       </c>
       <c r="H8">
-        <v>2.48776293094114</v>
+        <v>7.647895</v>
       </c>
       <c r="I8">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="J8">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.54807521913974</v>
+        <v>4.705367</v>
       </c>
       <c r="N8">
-        <v>4.54807521913974</v>
+        <v>14.116101</v>
       </c>
       <c r="O8">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="P8">
-        <v>0.07938252089943376</v>
+        <v>0.08150174587488268</v>
       </c>
       <c r="Q8">
-        <v>11.31453293730785</v>
+        <v>11.99538425082167</v>
       </c>
       <c r="R8">
-        <v>11.31453293730785</v>
+        <v>107.958458257395</v>
       </c>
       <c r="S8">
-        <v>0.02940199896711864</v>
+        <v>0.02785037761055229</v>
       </c>
       <c r="T8">
-        <v>0.02940199896711864</v>
+        <v>0.02785037761055229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.48776293094114</v>
+        <v>2.549298333333333</v>
       </c>
       <c r="H9">
-        <v>2.48776293094114</v>
+        <v>7.647895</v>
       </c>
       <c r="I9">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="J9">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0225397793598</v>
+        <v>39.13297533333333</v>
       </c>
       <c r="N9">
-        <v>39.0225397793598</v>
+        <v>117.398926</v>
       </c>
       <c r="O9">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="P9">
-        <v>0.6811029788047218</v>
+        <v>0.6778229649133395</v>
       </c>
       <c r="Q9">
-        <v>97.07882793426738</v>
+        <v>99.76162879564112</v>
       </c>
       <c r="R9">
-        <v>97.07882793426738</v>
+        <v>897.85465916077</v>
       </c>
       <c r="S9">
-        <v>0.2522695028126866</v>
+        <v>0.2316223453043645</v>
       </c>
       <c r="T9">
-        <v>0.2522695028126866</v>
+        <v>0.2316223453043645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.48776293094114</v>
+        <v>2.549298333333333</v>
       </c>
       <c r="H10">
-        <v>2.48776293094114</v>
+        <v>7.647895</v>
       </c>
       <c r="I10">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="J10">
-        <v>0.3703837902095191</v>
+        <v>0.3417151045243469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.7225418275667</v>
+        <v>13.89498533333333</v>
       </c>
       <c r="N10">
-        <v>13.7225418275667</v>
+        <v>41.684956</v>
       </c>
       <c r="O10">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="P10">
-        <v>0.2395145002958443</v>
+        <v>0.2406752892117778</v>
       </c>
       <c r="Q10">
-        <v>34.13843087690972</v>
+        <v>35.42246295195778</v>
       </c>
       <c r="R10">
-        <v>34.13843087690972</v>
+        <v>318.80216656762</v>
       </c>
       <c r="S10">
-        <v>0.08871228842971382</v>
+        <v>0.08224238160943007</v>
       </c>
       <c r="T10">
-        <v>0.08871228842971382</v>
+        <v>0.08224238160943007</v>
       </c>
     </row>
   </sheetData>
